--- a/Outliers/Locomotion-Master-Rotations-CM.xlsx
+++ b/Outliers/Locomotion-Master-Rotations-CM.xlsx
@@ -9,7 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="15980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER-DISTANCE" sheetId="10" r:id="rId1"/>
@@ -778,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -810,6 +811,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1110,8 +1114,9 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1223,22 +1228,24 @@
         <v>1773.93967031598</v>
       </c>
       <c r="D2" s="18">
-        <v>0</v>
+        <f>'POSTURAL SWAY DATA'!G3</f>
+        <v>1734.9703288902399</v>
       </c>
       <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
         <f>'POSTURAL SWAY DATA'!G4</f>
         <v>1439.1188390174</v>
       </c>
-      <c r="G2" s="18">
+      <c r="F2" s="18">
         <f>'POSTURAL SWAY DATA'!G5</f>
         <v>2047.98991594837</v>
       </c>
-      <c r="H2" s="19">
+      <c r="G2" s="18">
         <f>'POSTURAL SWAY DATA'!G6</f>
         <v>1963.60527618984</v>
+      </c>
+      <c r="H2" s="19">
+        <f>'POSTURAL SWAY DATA'!G7</f>
+        <v>1819.53433405243</v>
       </c>
       <c r="I2" s="18">
         <v>0</v>
@@ -1297,28 +1304,28 @@
         <v>8</v>
       </c>
       <c r="C3" s="26">
-        <f>'POSTURAL SWAY DATA'!G7</f>
-        <v>1819.53433405243</v>
-      </c>
-      <c r="D3" s="18">
         <f>'POSTURAL SWAY DATA'!G8</f>
         <v>2355.6351476104201</v>
       </c>
-      <c r="E3" s="18">
+      <c r="D3" s="18">
         <f>'POSTURAL SWAY DATA'!G9</f>
         <v>2564.0125902127802</v>
       </c>
-      <c r="F3" s="18">
+      <c r="E3" s="18">
         <f>'POSTURAL SWAY DATA'!G10</f>
         <v>2242.1359652476099</v>
       </c>
-      <c r="G3" s="18">
+      <c r="F3" s="18">
         <f>'POSTURAL SWAY DATA'!G11</f>
         <v>2979.6512429759</v>
       </c>
-      <c r="H3" s="19">
+      <c r="G3" s="18">
         <f>'POSTURAL SWAY DATA'!G12</f>
         <v>2202.2541594486502</v>
+      </c>
+      <c r="H3" s="19">
+        <f>'POSTURAL SWAY DATA'!G13</f>
+        <v>2578.5614097860198</v>
       </c>
       <c r="I3" s="17">
         <v>9.5399999999999991</v>
@@ -1377,28 +1384,28 @@
         <v>9</v>
       </c>
       <c r="C4" s="26">
-        <f>'POSTURAL SWAY DATA'!G13</f>
-        <v>2578.5614097860198</v>
-      </c>
-      <c r="D4" s="18">
         <f>'POSTURAL SWAY DATA'!G14</f>
         <v>2320.4052809314899</v>
       </c>
-      <c r="E4" s="18">
+      <c r="D4" s="18">
         <f>'POSTURAL SWAY DATA'!G15</f>
         <v>2092.0019540061298</v>
       </c>
-      <c r="F4" s="18">
+      <c r="E4" s="18">
         <f>'POSTURAL SWAY DATA'!G16</f>
         <v>2647.6281088197302</v>
       </c>
-      <c r="G4" s="18">
+      <c r="F4" s="18">
         <f>'POSTURAL SWAY DATA'!G17</f>
         <v>2158.59719664356</v>
       </c>
-      <c r="H4" s="19">
+      <c r="G4" s="18">
         <f>'POSTURAL SWAY DATA'!G18</f>
         <v>2154.4052428897498</v>
+      </c>
+      <c r="H4" s="19">
+        <f>'POSTURAL SWAY DATA'!G19</f>
+        <v>2462.84540062816</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -1457,28 +1464,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="28">
-        <f>'POSTURAL SWAY DATA'!G19</f>
-        <v>2462.84540062816</v>
-      </c>
-      <c r="D5" s="27">
         <f>'POSTURAL SWAY DATA'!G20</f>
         <v>1825.40516489999</v>
       </c>
-      <c r="E5" s="27">
+      <c r="D5" s="27">
         <f>'POSTURAL SWAY DATA'!G21</f>
         <v>2203.9509455329999</v>
       </c>
-      <c r="F5" s="27">
+      <c r="E5" s="27">
         <f>'POSTURAL SWAY DATA'!G22</f>
         <v>2227.5152682977</v>
       </c>
-      <c r="G5" s="27">
+      <c r="F5" s="27">
         <f>'POSTURAL SWAY DATA'!G23</f>
         <v>2766.60805783254</v>
       </c>
-      <c r="H5" s="29">
+      <c r="G5" s="27">
         <f>'POSTURAL SWAY DATA'!G24</f>
         <v>2150.8524594192299</v>
+      </c>
+      <c r="H5" s="29">
+        <f>'POSTURAL SWAY DATA'!G25</f>
+        <v>1719.0446692376099</v>
       </c>
       <c r="I5" s="27">
         <v>38.159999999999997</v>
@@ -1538,28 +1545,28 @@
         <v>11</v>
       </c>
       <c r="C6" s="26">
-        <f>'POSTURAL SWAY DATA'!G25</f>
-        <v>1719.0446692376099</v>
-      </c>
-      <c r="D6" s="18">
         <f>'POSTURAL SWAY DATA'!G26</f>
         <v>1840.09172285721</v>
       </c>
-      <c r="E6" s="18">
-        <f>'POSTURAL SWAY DATA'!G26</f>
-        <v>1840.09172285721</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="D6" s="18">
         <f>'POSTURAL SWAY DATA'!G27</f>
         <v>2086.0733700620099</v>
       </c>
-      <c r="G6" s="18">
+      <c r="E6" s="18">
         <f>'POSTURAL SWAY DATA'!G28</f>
         <v>1847.6247053580601</v>
       </c>
-      <c r="H6" s="19">
+      <c r="F6" s="18">
         <f>'POSTURAL SWAY DATA'!G29</f>
         <v>2392.3272533335098</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'POSTURAL SWAY DATA'!G30</f>
+        <v>2037.8790948625301</v>
+      </c>
+      <c r="H6" s="19">
+        <f>'POSTURAL SWAY DATA'!G31</f>
+        <v>2044.9038295780699</v>
       </c>
       <c r="I6" s="18">
         <v>0</v>
@@ -1618,28 +1625,28 @@
         <v>12</v>
       </c>
       <c r="C7" s="26">
-        <f>'POSTURAL SWAY DATA'!G31</f>
-        <v>2044.9038295780699</v>
-      </c>
-      <c r="D7" s="18">
         <f>'POSTURAL SWAY DATA'!G32</f>
         <v>2380.4023578286401</v>
       </c>
-      <c r="E7" s="18">
+      <c r="D7" s="18">
         <f>'POSTURAL SWAY DATA'!G33</f>
         <v>2410.6972725963501</v>
       </c>
-      <c r="F7" s="18">
+      <c r="E7" s="18">
         <f>'POSTURAL SWAY DATA'!G34</f>
         <v>1894.7275003386401</v>
       </c>
-      <c r="G7" s="18">
+      <c r="F7" s="18">
         <f>'POSTURAL SWAY DATA'!G35</f>
         <v>2318.16699586816</v>
       </c>
-      <c r="H7" s="19">
+      <c r="G7" s="18">
         <f>'POSTURAL SWAY DATA'!G36</f>
         <v>2208.4254501670698</v>
+      </c>
+      <c r="H7" s="19">
+        <f>'POSTURAL SWAY DATA'!G37</f>
+        <v>2608.1242141887401</v>
       </c>
       <c r="I7" s="18">
         <v>0</v>
@@ -1698,28 +1705,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="26">
-        <f>'POSTURAL SWAY DATA'!G37</f>
-        <v>2608.1242141887401</v>
-      </c>
-      <c r="D8" s="18">
         <f>'POSTURAL SWAY DATA'!G38</f>
         <v>3287.5355313724799</v>
       </c>
-      <c r="E8" s="18">
+      <c r="D8" s="18">
         <f>'POSTURAL SWAY DATA'!G39</f>
         <v>1808.8831025142499</v>
       </c>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <f>'POSTURAL SWAY DATA'!G40</f>
         <v>2053.00185957026</v>
       </c>
-      <c r="G8" s="18">
+      <c r="F8" s="18">
         <f>'POSTURAL SWAY DATA'!G41</f>
         <v>2220.5450309133398</v>
       </c>
-      <c r="H8" s="19">
+      <c r="G8" s="18">
         <f>'POSTURAL SWAY DATA'!G42</f>
         <v>2150.9947441087602</v>
+      </c>
+      <c r="H8" s="19">
+        <f>'POSTURAL SWAY DATA'!G43</f>
+        <v>2224.6224978352402</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -1778,28 +1785,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="26">
-        <f>'POSTURAL SWAY DATA'!G43</f>
-        <v>2224.6224978352402</v>
-      </c>
-      <c r="D9" s="18">
         <f>'POSTURAL SWAY DATA'!G44</f>
         <v>2707.75700203511</v>
       </c>
-      <c r="E9" s="18">
+      <c r="D9" s="18">
         <f>'POSTURAL SWAY DATA'!G45</f>
         <v>2659.3736996135399</v>
       </c>
-      <c r="F9" s="18">
+      <c r="E9" s="18">
         <f>'POSTURAL SWAY DATA'!G46</f>
         <v>2383.78345618495</v>
       </c>
-      <c r="G9" s="18">
+      <c r="F9" s="18">
         <f>'POSTURAL SWAY DATA'!G47</f>
         <v>2117.8521793393902</v>
       </c>
-      <c r="H9" s="19">
+      <c r="G9" s="18">
         <f>'POSTURAL SWAY DATA'!G48</f>
         <v>2018.6781174524999</v>
+      </c>
+      <c r="H9" s="19">
+        <f>'POSTURAL SWAY DATA'!G49</f>
+        <v>2491.3203729613301</v>
       </c>
       <c r="I9" s="18">
         <v>19.079999999999998</v>
@@ -1858,28 +1865,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="26">
-        <f>'POSTURAL SWAY DATA'!G49</f>
-        <v>2491.3203729613301</v>
-      </c>
-      <c r="D10" s="18">
         <f>'POSTURAL SWAY DATA'!G50</f>
         <v>1812.01697679218</v>
       </c>
-      <c r="E10" s="18">
+      <c r="D10" s="18">
         <f>'POSTURAL SWAY DATA'!G51</f>
         <v>2330.1961357498099</v>
       </c>
-      <c r="F10" s="18">
+      <c r="E10" s="18">
         <f>'POSTURAL SWAY DATA'!G52</f>
         <v>2353.99992077978</v>
       </c>
-      <c r="G10" s="18">
+      <c r="F10" s="18">
         <f>'POSTURAL SWAY DATA'!G53</f>
         <v>2539.4343553548401</v>
       </c>
-      <c r="H10" s="19">
+      <c r="G10" s="18">
         <f>'POSTURAL SWAY DATA'!G54</f>
         <v>1861.26078454192</v>
+      </c>
+      <c r="H10" s="19">
+        <f>'POSTURAL SWAY DATA'!G55</f>
+        <v>2311.41386072057</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -1938,28 +1945,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="26">
-        <f>'POSTURAL SWAY DATA'!G55</f>
-        <v>2311.41386072057</v>
-      </c>
-      <c r="D11" s="18">
         <f>'POSTURAL SWAY DATA'!G56</f>
         <v>2351.2234112483002</v>
       </c>
-      <c r="E11" s="18">
+      <c r="D11" s="18">
         <f>'POSTURAL SWAY DATA'!G57</f>
         <v>2285.2339829522198</v>
       </c>
-      <c r="F11" s="18">
+      <c r="E11" s="18">
         <f>'POSTURAL SWAY DATA'!G58</f>
         <v>2537.27792165658</v>
       </c>
-      <c r="G11" s="18">
+      <c r="F11" s="18">
         <f>'POSTURAL SWAY DATA'!G59</f>
         <v>1859.6271900259701</v>
       </c>
-      <c r="H11" s="19">
+      <c r="G11" s="18">
         <f>'POSTURAL SWAY DATA'!G60</f>
         <v>1677.4610862588499</v>
+      </c>
+      <c r="H11" s="19">
+        <f>'POSTURAL SWAY DATA'!G61</f>
+        <v>1865.4762590590899</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -2018,28 +2025,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="26">
-        <f>'POSTURAL SWAY DATA'!G61</f>
-        <v>1865.4762590590899</v>
-      </c>
-      <c r="D12" s="18">
         <f>'POSTURAL SWAY DATA'!G62</f>
         <v>2332.9196516059901</v>
       </c>
-      <c r="E12" s="18">
+      <c r="D12" s="18">
         <f>'POSTURAL SWAY DATA'!G63</f>
         <v>3886.2092740615099</v>
       </c>
-      <c r="F12" s="18">
+      <c r="E12" s="18">
         <f>'POSTURAL SWAY DATA'!G64</f>
         <v>2098.0996339926201</v>
       </c>
-      <c r="G12" s="18">
+      <c r="F12" s="18">
         <f>'POSTURAL SWAY DATA'!G65</f>
         <v>2004.4212968275201</v>
       </c>
-      <c r="H12" s="19">
+      <c r="G12" s="18">
         <f>'POSTURAL SWAY DATA'!G66</f>
         <v>2686.9030525302701</v>
+      </c>
+      <c r="H12" s="19">
+        <f>'POSTURAL SWAY DATA'!G67</f>
+        <v>2587.4013999075</v>
       </c>
       <c r="I12" s="18">
         <v>19.079999999999998</v>
@@ -2098,28 +2105,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="26">
-        <f>'POSTURAL SWAY DATA'!G67</f>
-        <v>2587.4013999075</v>
-      </c>
-      <c r="D13" s="18">
         <f>'POSTURAL SWAY DATA'!G68</f>
         <v>2527.3515173770602</v>
       </c>
-      <c r="E13" s="18">
+      <c r="D13" s="18">
         <f>'POSTURAL SWAY DATA'!G69</f>
         <v>2518.9946445054802</v>
       </c>
-      <c r="F13" s="18">
+      <c r="E13" s="18">
         <f>'POSTURAL SWAY DATA'!G70</f>
         <v>2342.75365001812</v>
       </c>
-      <c r="G13" s="18">
+      <c r="F13" s="18">
         <f>'POSTURAL SWAY DATA'!G71</f>
         <v>2187.7698815482599</v>
       </c>
-      <c r="H13" s="19">
+      <c r="G13" s="18">
         <f>'POSTURAL SWAY DATA'!G72</f>
         <v>2487.6595328753101</v>
+      </c>
+      <c r="H13" s="19">
+        <f>'POSTURAL SWAY DATA'!G73</f>
+        <v>2392.9991415742302</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -2178,28 +2185,28 @@
         <v>7</v>
       </c>
       <c r="C14" s="26">
-        <f>'POSTURAL SWAY DATA'!G73</f>
-        <v>2392.9991415742302</v>
-      </c>
-      <c r="D14" s="18">
         <f>'POSTURAL SWAY DATA'!G74</f>
         <v>3406.0280687769</v>
       </c>
-      <c r="E14" s="18">
+      <c r="D14" s="18">
         <f>'POSTURAL SWAY DATA'!G75</f>
         <v>2220.5457912254401</v>
       </c>
-      <c r="F14" s="18">
+      <c r="E14" s="18">
         <f>'POSTURAL SWAY DATA'!G76</f>
         <v>2231.4683817070099</v>
       </c>
-      <c r="G14" s="18">
+      <c r="F14" s="18">
         <f>'POSTURAL SWAY DATA'!G77</f>
         <v>2850.8563920228999</v>
       </c>
-      <c r="H14" s="19">
+      <c r="G14" s="18">
         <f>'POSTURAL SWAY DATA'!G78</f>
         <v>2173.8287408075998</v>
+      </c>
+      <c r="H14" s="19">
+        <f>'POSTURAL SWAY DATA'!G79</f>
+        <v>2067.5757676129601</v>
       </c>
       <c r="I14" s="18">
         <v>9.5399999999999991</v>
@@ -2258,28 +2265,28 @@
         <v>8</v>
       </c>
       <c r="C15" s="26">
-        <f>'POSTURAL SWAY DATA'!G79</f>
-        <v>2067.5757676129601</v>
-      </c>
-      <c r="D15" s="18">
         <f>'POSTURAL SWAY DATA'!G80</f>
         <v>1865.99671776521</v>
       </c>
-      <c r="E15" s="18">
+      <c r="D15" s="18">
         <f>'POSTURAL SWAY DATA'!G81</f>
         <v>2087.7730195794402</v>
       </c>
-      <c r="F15" s="18">
+      <c r="E15" s="18">
         <f>'POSTURAL SWAY DATA'!G82</f>
         <v>2145.59381958838</v>
       </c>
-      <c r="G15" s="18">
+      <c r="F15" s="18">
         <f>'POSTURAL SWAY DATA'!G83</f>
         <v>2211.8732435810998</v>
       </c>
-      <c r="H15" s="19">
+      <c r="G15" s="18">
         <f>'POSTURAL SWAY DATA'!G84</f>
         <v>2309.5864660678299</v>
+      </c>
+      <c r="H15" s="19">
+        <f>'POSTURAL SWAY DATA'!G85</f>
+        <v>2115.1533521608499</v>
       </c>
       <c r="I15" s="18">
         <v>0</v>
@@ -2338,24 +2345,24 @@
         <v>9</v>
       </c>
       <c r="C16" s="26">
-        <f>'POSTURAL SWAY DATA'!G85</f>
-        <v>2115.1533521608499</v>
-      </c>
-      <c r="D16" s="18">
         <f>'POSTURAL SWAY DATA'!G86</f>
         <v>2094.86036928351</v>
       </c>
-      <c r="E16" s="18">
+      <c r="D16" s="18">
         <f>'POSTURAL SWAY DATA'!G87</f>
         <v>2063.7684146779902</v>
       </c>
-      <c r="F16" s="18">
+      <c r="E16" s="18">
         <f>'POSTURAL SWAY DATA'!G88</f>
         <v>1918.2944575611</v>
       </c>
-      <c r="G16" s="18">
+      <c r="F16" s="18">
         <f>'POSTURAL SWAY DATA'!G89</f>
         <v>3063.7005729133698</v>
+      </c>
+      <c r="G16" s="18">
+        <f>'POSTURAL SWAY DATA'!G90</f>
+        <v>2032.1818502829301</v>
       </c>
       <c r="H16" s="19">
         <f>'POSTURAL SWAY DATA'!G90</f>
@@ -2418,28 +2425,28 @@
         <v>10</v>
       </c>
       <c r="C17" s="26">
-        <f>'POSTURAL SWAY DATA'!G91</f>
-        <v>1884.0559908954899</v>
-      </c>
-      <c r="D17" s="18">
         <f>'POSTURAL SWAY DATA'!G92</f>
         <v>3971.3099368867502</v>
       </c>
-      <c r="E17" s="18">
+      <c r="D17" s="18">
         <f>'POSTURAL SWAY DATA'!G93</f>
         <v>4031.8526402164498</v>
       </c>
-      <c r="F17" s="18">
+      <c r="E17" s="18">
         <f>'POSTURAL SWAY DATA'!G94</f>
         <v>2923.2503197262099</v>
       </c>
-      <c r="G17" s="18">
+      <c r="F17" s="18">
         <f>'POSTURAL SWAY DATA'!G95</f>
         <v>3237.7184310879602</v>
       </c>
-      <c r="H17" s="19">
+      <c r="G17" s="18">
         <f>'POSTURAL SWAY DATA'!G96</f>
         <v>3416.8342039445602</v>
+      </c>
+      <c r="H17" s="19">
+        <f>'POSTURAL SWAY DATA'!G97</f>
+        <v>3365.1244196596899</v>
       </c>
       <c r="I17" s="18">
         <v>9.5399999999999991</v>
@@ -2498,28 +2505,28 @@
         <v>11</v>
       </c>
       <c r="C18" s="26">
-        <f>'POSTURAL SWAY DATA'!G97</f>
-        <v>3365.1244196596899</v>
-      </c>
-      <c r="D18" s="18">
         <f>'POSTURAL SWAY DATA'!G98</f>
         <v>2367.5049602958502</v>
       </c>
-      <c r="E18" s="18">
+      <c r="D18" s="18">
         <f>'POSTURAL SWAY DATA'!G99</f>
         <v>3331.6175236327199</v>
       </c>
-      <c r="F18" s="18">
+      <c r="E18" s="18">
         <f>'POSTURAL SWAY DATA'!G100</f>
         <v>2553.8236604644899</v>
       </c>
-      <c r="G18" s="18">
+      <c r="F18" s="18">
         <f>'POSTURAL SWAY DATA'!G101</f>
         <v>2283.4339403926201</v>
       </c>
-      <c r="H18" s="19">
+      <c r="G18" s="18">
         <f>'POSTURAL SWAY DATA'!G102</f>
         <v>3706.5532620528602</v>
+      </c>
+      <c r="H18" s="19">
+        <f>'POSTURAL SWAY DATA'!G103</f>
+        <v>2451.76596658569</v>
       </c>
       <c r="I18" s="18">
         <v>0</v>
@@ -2578,28 +2585,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="26">
-        <f>'POSTURAL SWAY DATA'!G103</f>
-        <v>2451.76596658569</v>
-      </c>
-      <c r="D19" s="18">
         <f>'POSTURAL SWAY DATA'!G104</f>
         <v>1938.43628521303</v>
       </c>
-      <c r="E19" s="18">
+      <c r="D19" s="18">
         <f>'POSTURAL SWAY DATA'!G105</f>
         <v>3068.1209037287599</v>
       </c>
-      <c r="F19" s="18">
+      <c r="E19" s="18">
         <f>'POSTURAL SWAY DATA'!G106</f>
         <v>2086.0837841092898</v>
       </c>
-      <c r="G19" s="18">
+      <c r="F19" s="18">
         <f>'POSTURAL SWAY DATA'!G107</f>
         <v>1938.77573248559</v>
       </c>
-      <c r="H19" s="19">
+      <c r="G19" s="18">
         <f>'POSTURAL SWAY DATA'!G108</f>
         <v>2425.9346012399401</v>
+      </c>
+      <c r="H19" s="19">
+        <f>'POSTURAL SWAY DATA'!G109</f>
+        <v>1783.3444985542401</v>
       </c>
       <c r="I19" s="18">
         <v>9.5399999999999991</v>
@@ -2658,28 +2665,28 @@
         <v>7</v>
       </c>
       <c r="C20" s="26">
-        <f>'POSTURAL SWAY DATA'!G109</f>
-        <v>1783.3444985542401</v>
-      </c>
-      <c r="D20" s="18">
         <f>'POSTURAL SWAY DATA'!G110</f>
         <v>2099.8016349455502</v>
       </c>
-      <c r="E20" s="18">
+      <c r="D20" s="18">
         <f>'POSTURAL SWAY DATA'!G111</f>
         <v>2378.2567916378798</v>
       </c>
-      <c r="F20" s="18">
+      <c r="E20" s="18">
         <f>'POSTURAL SWAY DATA'!G112</f>
         <v>2018.73284239804</v>
       </c>
-      <c r="G20" s="18">
+      <c r="F20" s="18">
         <f>'POSTURAL SWAY DATA'!G113</f>
         <v>2310.1818198148499</v>
       </c>
-      <c r="H20" s="19">
+      <c r="G20" s="18">
         <f>'POSTURAL SWAY DATA'!G114</f>
         <v>2769.6702883042299</v>
+      </c>
+      <c r="H20" s="19">
+        <f>'POSTURAL SWAY DATA'!G115</f>
+        <v>2296.94295358213</v>
       </c>
       <c r="I20" s="18">
         <v>0</v>
@@ -2738,28 +2745,28 @@
         <v>8</v>
       </c>
       <c r="C21" s="26">
-        <f>'POSTURAL SWAY DATA'!G115</f>
-        <v>2296.94295358213</v>
-      </c>
-      <c r="D21" s="18">
         <f>'POSTURAL SWAY DATA'!G116</f>
         <v>2324.0994376577501</v>
       </c>
-      <c r="E21" s="18">
+      <c r="D21" s="18">
         <f>'POSTURAL SWAY DATA'!G117</f>
         <v>2162.6429513817402</v>
       </c>
-      <c r="F21" s="18">
+      <c r="E21" s="18">
         <f>'POSTURAL SWAY DATA'!G118</f>
         <v>2576.7610560101998</v>
       </c>
-      <c r="G21" s="18">
+      <c r="F21" s="18">
         <f>'POSTURAL SWAY DATA'!G119</f>
         <v>2356.90372450617</v>
       </c>
-      <c r="H21" s="19">
+      <c r="G21" s="18">
         <f>'POSTURAL SWAY DATA'!G120</f>
         <v>2178.6137462554502</v>
+      </c>
+      <c r="H21" s="19">
+        <f>'POSTURAL SWAY DATA'!G121</f>
+        <v>2134.6407645743798</v>
       </c>
       <c r="I21" s="18">
         <v>9.5399999999999991</v>
@@ -2818,28 +2825,28 @@
         <v>9</v>
       </c>
       <c r="C22" s="26">
-        <f>'POSTURAL SWAY DATA'!G121</f>
-        <v>2134.6407645743798</v>
-      </c>
-      <c r="D22" s="18">
         <f>'POSTURAL SWAY DATA'!G122</f>
         <v>3006.4207963676099</v>
       </c>
-      <c r="E22" s="18">
+      <c r="D22" s="18">
         <f>'POSTURAL SWAY DATA'!G123</f>
         <v>3886.2092740615099</v>
       </c>
-      <c r="F22" s="18">
+      <c r="E22" s="18">
         <f>'POSTURAL SWAY DATA'!G124</f>
         <v>2934.9035720813399</v>
       </c>
-      <c r="G22" s="18">
+      <c r="F22" s="18">
         <f>'POSTURAL SWAY DATA'!G125</f>
         <v>3608.6948548342102</v>
       </c>
-      <c r="H22" s="19">
+      <c r="G22" s="18">
         <f>'POSTURAL SWAY DATA'!G126</f>
         <v>3239.0580065098102</v>
+      </c>
+      <c r="H22" s="19">
+        <f>'POSTURAL SWAY DATA'!G127</f>
+        <v>3557.4535738187801</v>
       </c>
       <c r="I22" s="18">
         <v>0</v>
@@ -2898,28 +2905,28 @@
         <v>10</v>
       </c>
       <c r="C23" s="26">
-        <f>'POSTURAL SWAY DATA'!G127</f>
-        <v>3557.4535738187801</v>
-      </c>
-      <c r="D23" s="18">
         <f>'POSTURAL SWAY DATA'!G128</f>
         <v>3430.1045248842302</v>
       </c>
-      <c r="E23" s="18">
+      <c r="D23" s="18">
         <f>'POSTURAL SWAY DATA'!G129</f>
         <v>2564.4968345181001</v>
       </c>
-      <c r="F23" s="18">
+      <c r="E23" s="18">
         <f>'POSTURAL SWAY DATA'!G130</f>
         <v>4145.0591820456402</v>
       </c>
-      <c r="G23" s="18">
+      <c r="F23" s="18">
         <f>'POSTURAL SWAY DATA'!G131</f>
         <v>2723.8675435587002</v>
       </c>
-      <c r="H23" s="19">
+      <c r="G23" s="18">
         <f>'POSTURAL SWAY DATA'!G132</f>
         <v>2866.4840558118499</v>
+      </c>
+      <c r="H23" s="19">
+        <f>'POSTURAL SWAY DATA'!G133</f>
+        <v>2709.9222830567001</v>
       </c>
       <c r="I23" s="18">
         <v>19.079999999999998</v>
@@ -2978,28 +2985,28 @@
         <v>11</v>
       </c>
       <c r="C24" s="26">
-        <f>'POSTURAL SWAY DATA'!G133</f>
-        <v>2709.9222830567001</v>
-      </c>
-      <c r="D24" s="18">
         <f>'POSTURAL SWAY DATA'!G134</f>
         <v>2564.2632779025398</v>
       </c>
-      <c r="E24" s="18">
+      <c r="D24" s="18">
         <f>'POSTURAL SWAY DATA'!G135</f>
         <v>2464.7267465937898</v>
       </c>
-      <c r="F24" s="18">
+      <c r="E24" s="18">
         <f>'POSTURAL SWAY DATA'!G136</f>
         <v>2177.03273372182</v>
       </c>
-      <c r="G24" s="18">
+      <c r="F24" s="18">
         <f>'POSTURAL SWAY DATA'!G137</f>
         <v>2804.4926633407399</v>
       </c>
-      <c r="H24" s="19">
+      <c r="G24" s="18">
         <f>'POSTURAL SWAY DATA'!G138</f>
         <v>2222.76153953945</v>
+      </c>
+      <c r="H24" s="19">
+        <f>'POSTURAL SWAY DATA'!G139</f>
+        <v>2435.4429949478299</v>
       </c>
       <c r="I24" s="18">
         <v>19.079999999999998</v>
@@ -3058,28 +3065,28 @@
         <v>12</v>
       </c>
       <c r="C25" s="26">
-        <f>'POSTURAL SWAY DATA'!G139</f>
-        <v>2435.4429949478299</v>
-      </c>
-      <c r="D25" s="18">
         <f>'POSTURAL SWAY DATA'!G140</f>
         <v>2918.2801257347301</v>
       </c>
-      <c r="E25" s="18">
+      <c r="D25" s="18">
         <f>'POSTURAL SWAY DATA'!G141</f>
         <v>2622.9076359923702</v>
       </c>
-      <c r="F25" s="18">
+      <c r="E25" s="18">
         <f>'POSTURAL SWAY DATA'!G142</f>
         <v>2342.2475820791901</v>
       </c>
-      <c r="G25" s="18">
+      <c r="F25" s="18">
         <f>'POSTURAL SWAY DATA'!G143</f>
         <v>2014.44992009972</v>
       </c>
-      <c r="H25" s="19">
+      <c r="G25" s="18">
         <f>'POSTURAL SWAY DATA'!G144</f>
         <v>2964.0373862368701</v>
+      </c>
+      <c r="H25" s="19">
+        <f>'POSTURAL SWAY DATA'!G145</f>
+        <v>1935.75717245076</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
@@ -3138,28 +3145,28 @@
         <v>8</v>
       </c>
       <c r="C26" s="26">
-        <f>'POSTURAL SWAY DATA'!G145</f>
-        <v>1935.75717245076</v>
-      </c>
-      <c r="D26" s="18">
         <f>'POSTURAL SWAY DATA'!G146</f>
         <v>2006.96537098048</v>
       </c>
-      <c r="E26" s="18">
+      <c r="D26" s="18">
         <f>'POSTURAL SWAY DATA'!G147</f>
         <v>2352.2851561191001</v>
       </c>
-      <c r="F26" s="18">
+      <c r="E26" s="18">
         <f>'POSTURAL SWAY DATA'!G148</f>
         <v>2089.4515085355501</v>
       </c>
-      <c r="G26" s="18">
+      <c r="F26" s="18">
         <f>'POSTURAL SWAY DATA'!G149</f>
         <v>2045.7440409800799</v>
       </c>
-      <c r="H26" s="19">
+      <c r="G26" s="18">
         <f>'POSTURAL SWAY DATA'!G150</f>
         <v>1995.48597956706</v>
+      </c>
+      <c r="H26" s="19">
+        <f>'POSTURAL SWAY DATA'!G151</f>
+        <v>2130.9474009164301</v>
       </c>
       <c r="I26" s="18">
         <v>9.5399999999999991</v>
@@ -3218,28 +3225,28 @@
         <v>10</v>
       </c>
       <c r="C27" s="22">
-        <f>'POSTURAL SWAY DATA'!G151</f>
-        <v>2130.9474009164301</v>
-      </c>
-      <c r="D27" s="21">
         <f>'POSTURAL SWAY DATA'!G152</f>
         <v>2607.44441447701</v>
       </c>
-      <c r="E27" s="21">
+      <c r="D27" s="21">
         <f>'POSTURAL SWAY DATA'!G153</f>
         <v>2493.7606344686701</v>
       </c>
-      <c r="F27" s="21">
+      <c r="E27" s="21">
         <f>'POSTURAL SWAY DATA'!G154</f>
         <v>1868.94091408026</v>
       </c>
-      <c r="G27" s="21">
+      <c r="F27" s="21">
         <f>'POSTURAL SWAY DATA'!G155</f>
         <v>2016.18047104475</v>
       </c>
-      <c r="H27" s="23">
+      <c r="G27" s="21">
         <f>'POSTURAL SWAY DATA'!G156</f>
         <v>2565.6284247724402</v>
+      </c>
+      <c r="H27" s="23">
+        <f>'POSTURAL SWAY DATA'!G157</f>
+        <v>1936.7203612021401</v>
       </c>
       <c r="I27" s="21">
         <v>28.619999999999902</v>
@@ -3363,6 +3370,9 @@
     <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G157"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="1">
+      <selection activeCell="G153" sqref="G153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3512,22 +3522,22 @@
         <v>1819.53433405243</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>1558.16150244183</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>1439.4379525991999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="31">
         <f t="shared" si="0"/>
         <v>2997.5994550410296</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8">
+      <c r="F8" s="33"/>
+      <c r="G8" s="13">
         <v>2355.6351476104201</v>
       </c>
     </row>
